--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H2">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J2">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>3.30185826316525</v>
+        <v>4.523650857480222</v>
       </c>
       <c r="R2">
-        <v>3.30185826316525</v>
+        <v>40.712857717322</v>
       </c>
       <c r="S2">
-        <v>0.001846889102716148</v>
+        <v>0.002162017206172028</v>
       </c>
       <c r="T2">
-        <v>0.001846889102716148</v>
+        <v>0.002162017206172028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H3">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I3">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J3">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>5.201184742432825</v>
+        <v>5.858746884324889</v>
       </c>
       <c r="R3">
-        <v>5.201184742432825</v>
+        <v>52.728721958924</v>
       </c>
       <c r="S3">
-        <v>0.002909274310522372</v>
+        <v>0.002800108136014021</v>
       </c>
       <c r="T3">
-        <v>0.002909274310522372</v>
+        <v>0.00280010813601402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H4">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I4">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J4">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>2.804155980732423</v>
+        <v>3.674902482245778</v>
       </c>
       <c r="R4">
-        <v>2.804155980732423</v>
+        <v>33.074122340212</v>
       </c>
       <c r="S4">
-        <v>0.001568500132457633</v>
+        <v>0.00175636950063943</v>
       </c>
       <c r="T4">
-        <v>0.001568500132457633</v>
+        <v>0.00175636950063943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.12883709121775</v>
+        <v>0.1448543333333333</v>
       </c>
       <c r="H5">
-        <v>0.12883709121775</v>
+        <v>0.434563</v>
       </c>
       <c r="I5">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137001</v>
       </c>
       <c r="J5">
-        <v>0.007147272683875431</v>
+        <v>0.007514552731137</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>1.470656129952781</v>
+        <v>1.665614842834778</v>
       </c>
       <c r="R5">
-        <v>1.470656129952781</v>
+        <v>14.990533585513</v>
       </c>
       <c r="S5">
-        <v>0.0008226091381792784</v>
+        <v>0.0007960578883115214</v>
       </c>
       <c r="T5">
-        <v>0.0008226091381792784</v>
+        <v>0.0007960578883115213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="H6">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="I6">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J6">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>352.9365723823087</v>
+        <v>452.6478848423887</v>
       </c>
       <c r="R6">
-        <v>352.9365723823087</v>
+        <v>4073.830963581498</v>
       </c>
       <c r="S6">
-        <v>0.1974145034493421</v>
+        <v>0.2163368805858152</v>
       </c>
       <c r="T6">
-        <v>0.1974145034493421</v>
+        <v>0.2163368805858151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="H7">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="I7">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J7">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>555.9561219813421</v>
+        <v>586.2409519583907</v>
       </c>
       <c r="R7">
-        <v>555.9561219813421</v>
+        <v>5276.168567625517</v>
       </c>
       <c r="S7">
-        <v>0.3109731616072952</v>
+        <v>0.2801858642562694</v>
       </c>
       <c r="T7">
-        <v>0.3109731616072952</v>
+        <v>0.2801858642562693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="H8">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="I8">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J8">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>299.7370333262912</v>
+        <v>367.7199872399454</v>
       </c>
       <c r="R8">
-        <v>299.7370333262912</v>
+        <v>3309.479885159508</v>
       </c>
       <c r="S8">
-        <v>0.1676574269424019</v>
+        <v>0.175746750691755</v>
       </c>
       <c r="T8">
-        <v>0.1676574269424019</v>
+        <v>0.175746750691755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.7714334613835</v>
+        <v>14.494489</v>
       </c>
       <c r="H9">
-        <v>13.7714334613835</v>
+        <v>43.483467</v>
       </c>
       <c r="I9">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625467</v>
       </c>
       <c r="J9">
-        <v>0.7639740176219829</v>
+        <v>0.7519250504625465</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>157.1988535816168</v>
+        <v>166.6656113224464</v>
       </c>
       <c r="R9">
-        <v>157.1988535816168</v>
+        <v>1499.990501902017</v>
       </c>
       <c r="S9">
-        <v>0.08792892562294374</v>
+        <v>0.07965555492870707</v>
       </c>
       <c r="T9">
-        <v>0.08792892562294374</v>
+        <v>0.07965555492870706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>4.12577895134622</v>
+        <v>0.091182</v>
       </c>
       <c r="H10">
-        <v>4.12577895134622</v>
+        <v>0.273546</v>
       </c>
       <c r="I10">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="J10">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>105.7361447214897</v>
+        <v>2.847519456236</v>
       </c>
       <c r="R10">
-        <v>105.7361447214897</v>
+        <v>25.627675106124</v>
       </c>
       <c r="S10">
-        <v>0.05914334228936082</v>
+        <v>0.001360933072257725</v>
       </c>
       <c r="T10">
-        <v>0.05914334228936082</v>
+        <v>0.001360933072257725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>4.12577895134622</v>
+        <v>0.091182</v>
       </c>
       <c r="H11">
-        <v>4.12577895134622</v>
+        <v>0.273546</v>
       </c>
       <c r="I11">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="J11">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>166.5587008334758</v>
+        <v>3.687927355112</v>
       </c>
       <c r="R11">
-        <v>166.5587008334758</v>
+        <v>33.191346196008</v>
       </c>
       <c r="S11">
-        <v>0.09316434111166755</v>
+        <v>0.001762594560913128</v>
       </c>
       <c r="T11">
-        <v>0.09316434111166755</v>
+        <v>0.001762594560913127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.12577895134622</v>
+        <v>0.091182</v>
       </c>
       <c r="H12">
-        <v>4.12577895134622</v>
+        <v>0.273546</v>
       </c>
       <c r="I12">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="J12">
-        <v>0.2288787096941417</v>
+        <v>0.004730213666123443</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>89.79811335575643</v>
+        <v>2.313254636056</v>
       </c>
       <c r="R12">
-        <v>89.79811335575643</v>
+        <v>20.819291724504</v>
       </c>
       <c r="S12">
-        <v>0.0502284301089988</v>
+        <v>0.001105588491017214</v>
       </c>
       <c r="T12">
-        <v>0.0502284301089988</v>
+        <v>0.001105588491017214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.091182</v>
+      </c>
+      <c r="H13">
+        <v>0.273546</v>
+      </c>
+      <c r="I13">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="J13">
+        <v>0.004730213666123443</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.49855033333333</v>
+      </c>
+      <c r="N13">
+        <v>34.495651</v>
+      </c>
+      <c r="O13">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="P13">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="Q13">
+        <v>1.048460816494</v>
+      </c>
+      <c r="R13">
+        <v>9.436147348446001</v>
+      </c>
+      <c r="S13">
+        <v>0.0005010975419353775</v>
+      </c>
+      <c r="T13">
+        <v>0.0005010975419353775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H14">
+        <v>13.637947</v>
+      </c>
+      <c r="I14">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J14">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.22896466666667</v>
+      </c>
+      <c r="N14">
+        <v>93.686894</v>
+      </c>
+      <c r="O14">
+        <v>0.2877106972998646</v>
+      </c>
+      <c r="P14">
+        <v>0.2877106972998646</v>
+      </c>
+      <c r="Q14">
+        <v>141.9663216629576</v>
+      </c>
+      <c r="R14">
+        <v>1277.696894966618</v>
+      </c>
+      <c r="S14">
+        <v>0.06785086643561969</v>
+      </c>
+      <c r="T14">
+        <v>0.06785086643561968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H15">
+        <v>13.637947</v>
+      </c>
+      <c r="I15">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J15">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.44578266666667</v>
+      </c>
+      <c r="N15">
+        <v>121.337348</v>
+      </c>
+      <c r="O15">
+        <v>0.3726247238124506</v>
+      </c>
+      <c r="P15">
+        <v>0.3726247238124505</v>
+      </c>
+      <c r="Q15">
+        <v>183.8658134605062</v>
+      </c>
+      <c r="R15">
+        <v>1654.792321144556</v>
+      </c>
+      <c r="S15">
+        <v>0.08787615685925405</v>
+      </c>
+      <c r="T15">
+        <v>0.08787615685925401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.12577895134622</v>
-      </c>
-      <c r="H13">
-        <v>4.12577895134622</v>
-      </c>
-      <c r="I13">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="J13">
-        <v>0.2288787096941417</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.4148504600061</v>
-      </c>
-      <c r="N13">
-        <v>11.4148504600061</v>
-      </c>
-      <c r="O13">
-        <v>0.1150941309452376</v>
-      </c>
-      <c r="P13">
-        <v>0.1150941309452376</v>
-      </c>
-      <c r="Q13">
-        <v>47.09514976065788</v>
-      </c>
-      <c r="R13">
-        <v>47.09514976065788</v>
-      </c>
-      <c r="S13">
-        <v>0.02634259618411456</v>
-      </c>
-      <c r="T13">
-        <v>0.02634259618411456</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H16">
+        <v>13.637947</v>
+      </c>
+      <c r="I16">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J16">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.36964133333333</v>
+      </c>
+      <c r="N16">
+        <v>76.108924</v>
+      </c>
+      <c r="O16">
+        <v>0.2337290805561598</v>
+      </c>
+      <c r="P16">
+        <v>0.2337290805561598</v>
+      </c>
+      <c r="Q16">
+        <v>115.3299413043365</v>
+      </c>
+      <c r="R16">
+        <v>1037.969471739028</v>
+      </c>
+      <c r="S16">
+        <v>0.05512037187274807</v>
+      </c>
+      <c r="T16">
+        <v>0.05512037187274806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.545982333333334</v>
+      </c>
+      <c r="H17">
+        <v>13.637947</v>
+      </c>
+      <c r="I17">
+        <v>0.235830183140193</v>
+      </c>
+      <c r="J17">
+        <v>0.2358301831401929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.49855033333333</v>
+      </c>
+      <c r="N17">
+        <v>34.495651</v>
+      </c>
+      <c r="O17">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="P17">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="Q17">
+        <v>52.27220667427746</v>
+      </c>
+      <c r="R17">
+        <v>470.4498600684971</v>
+      </c>
+      <c r="S17">
+        <v>0.02498278797257118</v>
+      </c>
+      <c r="T17">
+        <v>0.02498278797257118</v>
       </c>
     </row>
   </sheetData>
